--- a/Luban/DataTables/Datas/monster/skill.xlsx
+++ b/Luban/DataTables/Datas/monster/skill.xlsx
@@ -15,12 +15,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>##</t>
   </si>
@@ -245,10 +244,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>造成6点伤害，额外进行一次判定，4以上造成两回合着火</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>火球</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -275,6 +270,64 @@
       </rPr>
       <t>one</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点伤害，额外进行一次判定，{1}以上造成{2}回合着火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>born</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次受到的物理伤害减少{0}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>learnConsume</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collision</t>
+  </si>
+  <si>
+    <t>Whirlwind Slash</t>
+  </si>
+  <si>
+    <t>Slap</t>
+  </si>
+  <si>
+    <t>Fireball</t>
+  </si>
+  <si>
+    <t>Elastic Body LV2</t>
+  </si>
+  <si>
+    <t>Elastic Body LV3</t>
+  </si>
+  <si>
+    <t>Elastic Body LV1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹性身躯LV1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹性身躯LV2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹性身躯LV3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次受到的物理伤害减少{0}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -643,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -657,11 +710,12 @@
     <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="13.75" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.125" customWidth="1"/>
-    <col min="10" max="10" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="42.125" customWidth="1"/>
+    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,18 +741,21 @@
         <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -719,18 +776,21 @@
         <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -746,13 +806,13 @@
       <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>10000</v>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -770,16 +830,19 @@
       <c r="H5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>10001</v>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -797,16 +860,19 @@
       <c r="H6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>10002</v>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>47</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -823,28 +889,31 @@
       <c r="H7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>10003</v>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="4" t="b">
         <v>1</v>
@@ -852,11 +921,101 @@
       <c r="H8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>36</v>
+      <c r="I8" s="4">
+        <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="G9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/DataTables/Datas/monster/skill.xlsx
+++ b/Luban/DataTables/Datas/monster/skill.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16770"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16770" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="learn" sheetId="1" r:id="rId1"/>
+    <sheet name="born" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
   <si>
     <t>##</t>
   </si>
@@ -330,12 +331,24 @@
     <t>每次受到的物理伤害减少{0}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>元素生物：暗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicCreaturesDarkness</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗属性伤害转为治疗，光属性造成{0}倍伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +382,12 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -696,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -931,96 +950,241 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Luban/DataTables/Datas/monster/skill.xlsx
+++ b/Luban/DataTables/Datas/monster/skill.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16770" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16770"/>
   </bookViews>
   <sheets>
     <sheet name="learn" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="115">
   <si>
     <t>##</t>
   </si>
@@ -297,23 +297,10 @@
     <t>Collision</t>
   </si>
   <si>
-    <t>Whirlwind Slash</t>
-  </si>
-  <si>
     <t>Slap</t>
   </si>
   <si>
     <t>Fireball</t>
-  </si>
-  <si>
-    <t>Elastic Body LV2</t>
-  </si>
-  <si>
-    <t>Elastic Body LV3</t>
-  </si>
-  <si>
-    <t>Elastic Body LV1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>弹性身躯LV1</t>
@@ -342,6 +329,509 @@
   <si>
     <t>暗属性伤害转为治疗，光属性造成{0}倍伤害</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WhirlwindSlash</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElasticBodyLV1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElasticBodyLV2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElasticBodyLV3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dig</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖洞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻入土中，下回合不会被攻击，并且无法行动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>引爆场上所有敌方的着火状态，每个着火造成{0}点伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰风暴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对地敌方全体造成{0}点伤害，并且附加{1}回合着火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火,火,风</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼烧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>为目标附加{0}回合的着火状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水流喷射</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <r>
+      <t>造成{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点伤害，并且造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回合潮湿</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸汽喷射</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水,火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电箭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷,雷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,4,2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>造成{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点伤害，额外进行一次判定，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以上则造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{2}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回合麻痹</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天雷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水,火,雷,雷,暗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,3,2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>造成{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点伤害并且造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回合麻痹，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{2}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回合灼烧</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>风刃</t>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>造成{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点伤害，并且额外造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点物理伤害</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>土墙</t>
+  </si>
+  <si>
+    <t>为队伍抵挡{0}点伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰炸弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰锥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>风,风</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>土,土</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水,冰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点伤害，并且额外造成{1}点物理伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪球</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点伤害，并且造成{1}回合减速</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰吐息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>风,冰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firestorm</t>
+  </si>
+  <si>
+    <t>Scorching</t>
+  </si>
+  <si>
+    <t>Snowball</t>
+  </si>
+  <si>
+    <t>FlameBomb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaterJet</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightningArrow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SteamEjection</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeavenThunder</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WindBlade</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarthWall</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IceSpike</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrostBreath</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -430,13 +920,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -715,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -731,7 +1233,7 @@
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="42.125" customWidth="1"/>
-    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -765,7 +1267,7 @@
       <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -800,7 +1302,7 @@
       <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -808,6 +1310,7 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -828,6 +1331,7 @@
       <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
@@ -855,13 +1359,13 @@
       <c r="J5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -885,13 +1389,13 @@
       <c r="J6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -914,13 +1418,13 @@
       <c r="J7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>36</v>
@@ -946,8 +1450,380 @@
       <c r="J8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="7" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -959,10 +1835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1068,11 +1944,11 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>51</v>
+      <c r="B5" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1097,11 +1973,11 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1126,11 +2002,11 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1148,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -1156,10 +2032,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1177,14 +2053,41 @@
         <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K8">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Luban/DataTables/Datas/monster/skill.xlsx
+++ b/Luban/DataTables/Datas/monster/skill.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MonsterKingdom\Luban\DataTables\Datas\monster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityPorjects\MonsterKingdom\Luban\DataTables\Datas\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11ED78B7-E033-4483-BD0A-BB953DF43D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16770"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="learn" sheetId="1" r:id="rId1"/>
@@ -837,7 +838,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1216,11 +1217,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1232,7 +1233,7 @@
     <col min="5" max="7" width="13.75" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="42.125" customWidth="1"/>
+    <col min="10" max="10" width="52.5" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1825,6 +1826,10 @@
       <c r="K20" s="8" t="s">
         <v>77</v>
       </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1834,11 +1839,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Luban/DataTables/Datas/monster/skill.xlsx
+++ b/Luban/DataTables/Datas/monster/skill.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityPorjects\MonsterKingdom\Luban\DataTables\Datas\monster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MonsterKingdom\Luban\DataTables\Datas\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11ED78B7-E033-4483-BD0A-BB953DF43D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="learn" sheetId="1" r:id="rId1"/>
@@ -152,9 +151,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>kindPoint</t>
-  </si>
-  <si>
     <t>isAction</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -832,13 +828,17 @@
   </si>
   <si>
     <t>FrostBreath</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1217,11 +1217,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1254,22 +1254,22 @@
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1289,22 +1289,22 @@
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1336,7 +1336,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1352,13 +1352,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="4">
         <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7">
         <v>3</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -1382,21 +1382,21 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -1405,83 +1405,83 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="G7" s="4" t="b">
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="K8" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="G8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="4" t="b">
         <v>1</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K9" s="8">
         <v>4</v>
@@ -1489,63 +1489,63 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
         <v>65</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="K10" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="G10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
         <v>69</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>70</v>
       </c>
       <c r="K11" s="8">
         <v>3</v>
@@ -1553,188 +1553,188 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
         <v>71</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="G15" s="4" t="b">
         <v>1</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15" s="4">
         <v>2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="K17" s="8">
         <v>6</v>
@@ -1742,89 +1742,89 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="K18" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
         <v>97</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>101</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>102</v>
-      </c>
       <c r="G20" s="4" t="b">
         <v>1</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
@@ -1839,11 +1839,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1870,22 +1870,22 @@
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1905,13 +1905,13 @@
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>12</v>
@@ -1920,7 +1920,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1950,28 +1950,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="4" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1979,28 +1979,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="4" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -2008,28 +2008,28 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -2037,28 +2037,28 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -2066,13 +2066,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="D9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>19</v>
@@ -2081,13 +2081,13 @@
         <v>1</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/DataTables/Datas/monster/skill.xlsx
+++ b/Luban/DataTables/Datas/monster/skill.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="learn" sheetId="1" r:id="rId1"/>
-    <sheet name="born" sheetId="2" r:id="rId2"/>
+    <sheet name="point" sheetId="1" r:id="rId1"/>
+    <sheet name="magic" sheetId="3" r:id="rId2"/>
+    <sheet name="born" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="126">
   <si>
     <t>##</t>
   </si>
@@ -268,10 +269,6 @@
       </rPr>
       <t>one</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成{0}点伤害，额外进行一次判定，{1}以上造成{2}回合着火</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -371,10 +368,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>对地敌方全体造成{0}点伤害，并且附加{1}回合着火</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>火,火,风</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -398,8 +391,28 @@
     <t>水</t>
   </si>
   <si>
-    <r>
-      <t>造成{</t>
+    <t>蒸汽喷射</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水,火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电箭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷,雷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -410,17 +423,21 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>点伤害，并且造成</t>
+      <t>,4,2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天雷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水,火,雷,雷,暗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -431,6 +448,166 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>0,3,2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>风刃</t>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>为队伍抵挡{0}点伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰炸弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰锥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>风,风</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>土,土</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水,冰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪球</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰吐息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>风,冰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firestorm</t>
+  </si>
+  <si>
+    <t>Scorching</t>
+  </si>
+  <si>
+    <t>Snowball</t>
+  </si>
+  <si>
+    <t>FlameBomb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaterJet</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightningArrow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SteamEjection</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeavenThunder</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WindBlade</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarthWall</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IceSpike</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrostBreath</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>土墙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>土甲术</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>为目标添加{0}点护盾(土)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点火伤害，额外进行一次判定，{1}以上造成{2}回合着火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对地敌方全体造成{0}点火伤害，并且附加{1}回合着火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>造成{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点水伤害，并且造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>{1}</t>
     </r>
     <r>
@@ -447,7 +624,17 @@
   </si>
   <si>
     <r>
-      <t>2</t>
+      <t>造成{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点火伤害，并且造成</t>
     </r>
     <r>
       <rPr>
@@ -458,33 +645,33 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸汽喷射</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水,火</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电箭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷,雷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
+      <t>{1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回合潮湿</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>造成{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点雷伤害，额外进行一次判定，</t>
     </r>
     <r>
       <rPr>
@@ -495,13 +682,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,4,2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>造成{</t>
+      <t>{1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以上则造成</t>
     </r>
     <r>
       <rPr>
@@ -512,17 +703,33 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>点伤害，额外进行一次判定，</t>
+      <t>{2}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回合麻痹</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>造成{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点雷伤害并且造成</t>
     </r>
     <r>
       <rPr>
@@ -543,7 +750,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>以上则造成</t>
+      <t>回合麻痹，</t>
     </r>
     <r>
       <rPr>
@@ -564,21 +771,23 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>回合麻痹</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>天雷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水,火,雷,雷,暗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
+      <t>回合灼烧</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>造成{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点风伤害，并且额外造成</t>
     </r>
     <r>
       <rPr>
@@ -589,44 +798,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0,3,2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>造成{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>点伤害并且造成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>{1}</t>
     </r>
     <r>
@@ -637,202 +808,53 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>回合麻痹，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{2}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>回合灼烧</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>风刃</t>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>造成{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>点伤害，并且额外造成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{1}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>点物理伤害</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>土墙</t>
-  </si>
-  <si>
-    <t>为队伍抵挡{0}点伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰炸弹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰锥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>风,风</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>土,土</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水,冰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成{0}点伤害，并且额外造成{1}点物理伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪球</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成{0}点伤害，并且造成{1}回合减速</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒冰吐息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>风,冰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Firestorm</t>
-  </si>
-  <si>
-    <t>Scorching</t>
-  </si>
-  <si>
-    <t>Snowball</t>
-  </si>
-  <si>
-    <t>FlameBomb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>WaterJet</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LightningArrow</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SteamEjection</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeavenThunder</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>WindBlade</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EarthWall</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IceSpike</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FrostBreath</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>造成{0}点冰伤害，并且额外造成{1}点物理伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点冰伤害，并且造成{1}回合减速(冰)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰甲术</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>为目标添加{0}点护盾(冰)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>土锥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点土伤害，并且额外造成{1}点物理伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarthArmorSpell</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IceArmorSpell</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarthSpike</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1218,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1263,7 +1285,7 @@
         <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1298,7 +1320,7 @@
         <v>33</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -1336,7 +1358,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1366,7 +1388,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -1396,7 +1418,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -1405,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G7" s="4" t="b">
         <v>1</v>
@@ -1422,414 +1444,6 @@
       <c r="K7" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="4">
-        <v>2</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K17" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C21" s="3"/>
-      <c r="F21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1840,10 +1454,629 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="52.5" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="4">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C21" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1879,7 +2112,7 @@
         <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1950,10 +2183,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1965,13 +2198,13 @@
         <v>0</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1979,10 +2212,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1994,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -2008,10 +2241,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2023,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -2037,10 +2270,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2052,13 +2285,13 @@
         <v>0</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="4">
         <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -2066,10 +2299,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -2081,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/DataTables/Datas/monster/skill.xlsx
+++ b/Luban/DataTables/Datas/monster/skill.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MonsterKingdom\Luban\DataTables\Datas\monster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityPorjects\MonsterKingdom\Luban\DataTables\Datas\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A9C861-8CFA-4585-886A-297ED5C8450D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2"/>
+    <workbookView xWindow="7560" yWindow="4440" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="point" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="134">
   <si>
     <t>##</t>
   </si>
@@ -388,9 +389,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>水</t>
-  </si>
-  <si>
     <t>蒸汽喷射</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -829,10 +827,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2,3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>6,3</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -854,13 +848,53 @@
   </si>
   <si>
     <t>EarthSpike</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素亲和：火</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementalAffinityFire</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放的火伤害+{0}，受到的火伤害-{1}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水,水</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>泼水</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplashWater</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}回合潮湿</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1239,11 +1273,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1427,7 +1461,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G7" s="4" t="b">
         <v>1</v>
@@ -1453,11 +1487,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1596,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>37</v>
@@ -1604,10 +1638,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1636,7 +1670,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
@@ -1660,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>65</v>
@@ -1668,7 +1702,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -1700,7 +1734,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>68</v>
@@ -1711,8 +1745,8 @@
       <c r="E9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F9" t="s">
-        <v>69</v>
+      <c r="F9" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="G9" s="4" t="b">
         <v>1</v>
@@ -1724,18 +1758,18 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1744,7 +1778,7 @@
         <v>38</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="G10" s="4" t="b">
         <v>1</v>
@@ -1755,11 +1789,11 @@
       <c r="I10" s="4">
         <v>1</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>120</v>
+      <c r="J10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1767,7 +1801,7 @@
         <v>97</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1776,7 +1810,7 @@
         <v>38</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G11" s="4" t="b">
         <v>1</v>
@@ -1788,18 +1822,18 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1808,7 +1842,7 @@
         <v>38</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G12" s="4" t="b">
         <v>1</v>
@@ -1817,21 +1851,21 @@
         <v>34</v>
       </c>
       <c r="I12" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" t="s">
-        <v>79</v>
+        <v>98</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1839,8 +1873,8 @@
       <c r="E13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F13" t="s">
-        <v>84</v>
+      <c r="F13" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="G13" s="4" t="b">
         <v>1</v>
@@ -1849,21 +1883,21 @@
         <v>34</v>
       </c>
       <c r="I13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1872,7 +1906,7 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G14" s="4" t="b">
         <v>1</v>
@@ -1880,19 +1914,22 @@
       <c r="H14" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
       <c r="J14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="8">
-        <v>6</v>
+        <v>113</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1901,7 +1938,7 @@
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G15" s="4" t="b">
         <v>1</v>
@@ -1909,19 +1946,22 @@
       <c r="H15" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
       <c r="J15" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>65</v>
+        <v>80</v>
+      </c>
+      <c r="K15" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" t="s">
-        <v>87</v>
+      <c r="B16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1929,8 +1969,8 @@
       <c r="E16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F16" t="s">
-        <v>88</v>
+      <c r="F16" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="G16" s="4" t="b">
         <v>1</v>
@@ -1938,19 +1978,22 @@
       <c r="H16" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
       <c r="J16" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1959,7 +2002,7 @@
         <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G17" s="4" t="b">
         <v>1</v>
@@ -1967,19 +2010,22 @@
       <c r="H17" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
       <c r="J17" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>106</v>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1987,8 +2033,8 @@
       <c r="E18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>85</v>
+      <c r="F18" t="s">
+        <v>87</v>
       </c>
       <c r="G18" s="4" t="b">
         <v>1</v>
@@ -1996,19 +2042,22 @@
       <c r="H18" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
       <c r="J18" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K18" s="8">
-        <v>8</v>
+        <v>115</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2016,8 +2065,8 @@
       <c r="E19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>86</v>
+      <c r="F19" t="s">
+        <v>90</v>
       </c>
       <c r="G19" s="4" t="b">
         <v>1</v>
@@ -2025,19 +2074,22 @@
       <c r="H19" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
       <c r="J19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="K19" s="8">
-        <v>6</v>
+        <v>115</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2046,7 +2098,7 @@
         <v>38</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G20" s="4" t="b">
         <v>1</v>
@@ -2054,15 +2106,51 @@
       <c r="H20" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
       <c r="J20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="K20" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C23" s="3"/>
+      <c r="I23" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2072,11 +2160,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2323,6 +2411,35 @@
         <v>59</v>
       </c>
     </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/DataTables/Datas/monster/skill.xlsx
+++ b/Luban/DataTables/Datas/monster/skill.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityPorjects\MonsterKingdom\Luban\DataTables\Datas\monster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MonsterKingdom\Luban\DataTables\Datas\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A9C861-8CFA-4585-886A-297ED5C8450D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="4440" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7560" yWindow="4440" windowWidth="28800" windowHeight="15345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="point" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="146">
   <si>
     <t>##</t>
   </si>
@@ -201,63 +200,11 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>点伤害，每连续释放一次，伤害加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{1}</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>descriptionVal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicConsume</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=,),game.MagicAttribute</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillLearnType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>game.SkillLearnType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>learn</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>火球</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>火,火</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,4,2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>n</t>
+      <t>点伤害，每连续释放一次，伤害加</t>
     </r>
     <r>
       <rPr>
@@ -268,149 +215,49 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>one</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>born</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次受到的物理伤害减少{0}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>learnConsume</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collision</t>
-  </si>
-  <si>
-    <t>Slap</t>
-  </si>
-  <si>
-    <t>Fireball</t>
-  </si>
-  <si>
-    <t>弹性身躯LV1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹性身躯LV2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹性身躯LV3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次受到的物理伤害减少{0}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素生物：暗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicCreaturesDarkness</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗属性伤害转为治疗，光属性造成{0}倍伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>WhirlwindSlash</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElasticBodyLV1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElasticBodyLV2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElasticBodyLV3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dig</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>挖洞</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻入土中，下回合不会被攻击，并且无法行动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>引爆场上所有敌方的着火状态，每个着火造成{0}点伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>火</t>
-  </si>
-  <si>
-    <t>火</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰风暴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>火,火,风</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>灼烧</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>为目标附加{0}回合的着火状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水流喷射</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸汽喷射</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水,火</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电箭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷,雷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
+      <t>{1}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>descriptionVal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicConsume</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=,),game.MagicAttribute</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillLearnType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>game.SkillLearnType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>learn</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火,火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,4,2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
     </r>
     <r>
       <rPr>
@@ -421,21 +268,149 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,4,2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>天雷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水,火,雷,雷,暗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
+      <t>one</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>born</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次受到的物理伤害减少{0}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>learnConsume</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collision</t>
+  </si>
+  <si>
+    <t>Slap</t>
+  </si>
+  <si>
+    <t>Fireball</t>
+  </si>
+  <si>
+    <t>弹性身躯LV1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹性身躯LV2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹性身躯LV3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次受到的物理伤害减少{0}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素生物：暗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicCreaturesDarkness</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗属性伤害转为治疗，光属性造成{0}倍伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WhirlwindSlash</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElasticBodyLV1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElasticBodyLV2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElasticBodyLV3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dig</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖洞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻入土中，下回合不会被攻击，并且无法行动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>引爆场上所有敌方的着火状态，每个着火造成{0}点伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰风暴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火,火,风</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼烧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>为目标附加{0}回合的着火状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水流喷射</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸汽喷射</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水,火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电箭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷,雷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -446,16 +421,21 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0,3,2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>风刃</t>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
+      <t>,4,2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天雷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水,火,雷,雷,暗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -466,136 +446,16 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>为队伍抵挡{0}点伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰炸弹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰锥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>风,风</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>土,土</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水,冰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪球</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒冰吐息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>风,冰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Firestorm</t>
-  </si>
-  <si>
-    <t>Scorching</t>
-  </si>
-  <si>
-    <t>Snowball</t>
-  </si>
-  <si>
-    <t>FlameBomb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>WaterJet</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LightningArrow</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SteamEjection</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeavenThunder</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>WindBlade</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EarthWall</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IceSpike</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FrostBreath</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>土墙</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>土甲术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>为目标添加{0}点护盾(土)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成{0}点火伤害，额外进行一次判定，{1}以上造成{2}回合着火</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>对地敌方全体造成{0}点火伤害，并且附加{1}回合着火</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>造成{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>点水伤害，并且造成</t>
+      <t>0,3,2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>风刃</t>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -606,33 +466,126 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{1}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>回合潮湿</t>
-    </r>
+      <t>,2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>为队伍抵挡{0}点伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰炸弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰锥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>风,风</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>土,土</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水,冰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪球</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰吐息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>风,冰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firestorm</t>
+  </si>
+  <si>
+    <t>Scorching</t>
+  </si>
+  <si>
+    <t>Snowball</t>
+  </si>
+  <si>
+    <t>FlameBomb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaterJet</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightningArrow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SteamEjection</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeavenThunder</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WindBlade</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarthWall</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IceSpike</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrostBreath</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>土墙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>土甲术</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>为目标添加{0}点护盾(土)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点火伤害，额外进行一次判定，{1}以上造成{2}回合着火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对地敌方全体造成{0}点火伤害，并且附加{1}回合着火</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
       <t>造成{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>点火伤害，并且造成</t>
     </r>
     <r>
       <rPr>
@@ -643,33 +596,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{1}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>回合潮湿</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>造成{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>点雷伤害，额外进行一次判定，</t>
+      <t>点水伤害，并且造成</t>
     </r>
     <r>
       <rPr>
@@ -687,47 +614,17 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>以上则造成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{2}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>回合麻痹</t>
+      <t>回合潮湿</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
       <t>造成{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>点雷伤害并且造成</t>
     </r>
     <r>
       <rPr>
@@ -738,17 +635,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{1}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>回合麻痹，</t>
+      <t>点火伤害，并且造成</t>
     </r>
     <r>
       <rPr>
@@ -759,33 +646,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{2}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>回合灼烧</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>造成{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>点风伤害，并且额外造成</t>
+      <t>{1}</t>
     </r>
     <r>
       <rPr>
@@ -796,6 +657,34 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>回合潮湿</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>造成{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点雷伤害，额外进行一次判定，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>{1}</t>
     </r>
     <r>
@@ -803,9 +692,132 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>以上则造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{2}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回合麻痹</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>造成{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点雷伤害并且造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回合麻痹，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{2}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回合灼烧</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>造成{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点风伤害，并且额外造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>点物理伤害</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -888,13 +900,61 @@
   </si>
   <si>
     <t>造成{0}回合潮湿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicCreaturesFire</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素生物：火</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火属性伤害转为治疗，水属性造成{0}倍伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicCreaturesIce</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素生物：冰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰属性伤害转为治疗，火属性造成{0}倍伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicCreaturesThunder</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素生物：雷</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷属性伤害转为治疗，水属性造成{0}倍伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物魔物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次受到火属性伤害+{0},雷、水属性伤害-{1}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -935,6 +995,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1273,7 +1334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1487,10 +1548,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -2160,18 +2221,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2358,10 +2419,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2379,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -2387,19 +2448,19 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G9" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>39</v>
@@ -2408,15 +2469,18 @@
         <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>59</v>
+        <v>139</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2434,9 +2498,129 @@
         <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>125</v>
       </c>
     </row>

--- a/Luban/DataTables/Datas/monster/skill.xlsx
+++ b/Luban/DataTables/Datas/monster/skill.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="4440" windowWidth="28800" windowHeight="15345" activeTab="2"/>
+    <workbookView xWindow="7560" yWindow="4440" windowWidth="28800" windowHeight="15345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="point" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="177">
   <si>
     <t>##</t>
   </si>
@@ -188,12 +188,44 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>造成{0}点伤害，额外进行一次判定，{1}以上则造成{2}回合眩晕</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>造成{0}</t>
+    <t>descriptionVal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicConsume</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=,),game.MagicAttribute</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillLearnType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>game.SkillLearnType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>learn</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火,火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,4,2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
     </r>
     <r>
       <rPr>
@@ -204,7 +236,149 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>点伤害，每连续释放一次，伤害加</t>
+      <t>one</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>born</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次受到的物理伤害减少{0}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>learnConsume</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collision</t>
+  </si>
+  <si>
+    <t>Slap</t>
+  </si>
+  <si>
+    <t>Fireball</t>
+  </si>
+  <si>
+    <t>弹性身躯LV1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹性身躯LV2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹性身躯LV3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次受到的物理伤害减少{0}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素生物：暗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicCreaturesDarkness</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗属性伤害转为治疗，光属性造成{0}倍伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WhirlwindSlash</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElasticBodyLV1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElasticBodyLV2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElasticBodyLV3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dig</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖洞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻入土中，下回合不会被攻击，并且无法行动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>引爆场上所有敌方的着火状态，每个着火造成{0}点伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰风暴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火,火,风</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼烧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>为目标附加{0}回合的着火状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水流喷射</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸汽喷射</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水,火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电箭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷,雷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -215,49 +389,21 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{1}</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>descriptionVal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicConsume</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=,),game.MagicAttribute</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillLearnType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>game.SkillLearnType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>learn</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>火球</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>火,火</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,4,2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>n</t>
+      <t>,4,2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天雷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水,火,雷,雷,暗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -268,149 +414,16 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>one</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>born</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次受到的物理伤害减少{0}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>learnConsume</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collision</t>
-  </si>
-  <si>
-    <t>Slap</t>
-  </si>
-  <si>
-    <t>Fireball</t>
-  </si>
-  <si>
-    <t>弹性身躯LV1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹性身躯LV2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹性身躯LV3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次受到的物理伤害减少{0}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素生物：暗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicCreaturesDarkness</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗属性伤害转为治疗，光属性造成{0}倍伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>WhirlwindSlash</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElasticBodyLV1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElasticBodyLV2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElasticBodyLV3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dig</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>挖洞</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻入土中，下回合不会被攻击，并且无法行动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>引爆场上所有敌方的着火状态，每个着火造成{0}点伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>火</t>
-  </si>
-  <si>
-    <t>火</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰风暴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>火,火,风</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>灼烧</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>为目标附加{0}回合的着火状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水流喷射</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸汽喷射</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水,火</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电箭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷,雷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
+      <t>0,3,2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>风刃</t>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -421,21 +434,126 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,4,2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>天雷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水,火,雷,雷,暗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
+      <t>,2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>为队伍抵挡{0}点伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰炸弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰锥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>风,风</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>土,土</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水,冰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪球</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰吐息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>风,冰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firestorm</t>
+  </si>
+  <si>
+    <t>Scorching</t>
+  </si>
+  <si>
+    <t>Snowball</t>
+  </si>
+  <si>
+    <t>FlameBomb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaterJet</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightningArrow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SteamEjection</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeavenThunder</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WindBlade</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarthWall</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IceSpike</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrostBreath</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>土墙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>土甲术</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>为目标添加{0}点护盾(土)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点火伤害，额外进行一次判定，{1}以上造成{2}回合着火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对地敌方全体造成{0}点火伤害，并且附加{1}回合着火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>造成{0}</t>
     </r>
     <r>
       <rPr>
@@ -446,16 +564,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0,3,2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>风刃</t>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
+      <t>点水伤害，并且造成</t>
     </r>
     <r>
       <rPr>
@@ -466,126 +575,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>为队伍抵挡{0}点伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰炸弹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰锥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>风,风</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>土,土</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水,冰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪球</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒冰吐息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>风,冰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Firestorm</t>
-  </si>
-  <si>
-    <t>Scorching</t>
-  </si>
-  <si>
-    <t>Snowball</t>
-  </si>
-  <si>
-    <t>FlameBomb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>WaterJet</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LightningArrow</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SteamEjection</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeavenThunder</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>WindBlade</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EarthWall</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IceSpike</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FrostBreath</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>土墙</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>土甲术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>为目标添加{0}点护盾(土)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成{0}点火伤害，额外进行一次判定，{1}以上造成{2}回合着火</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>对地敌方全体造成{0}点火伤害，并且附加{1}回合着火</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>造成{0}</t>
+      <t>{1}</t>
     </r>
     <r>
       <rPr>
@@ -596,7 +586,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>点水伤害，并且造成</t>
+      <t>回合潮湿</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>造成{0}</t>
     </r>
     <r>
       <rPr>
@@ -607,7 +603,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{1}</t>
+      <t>点火伤害，并且造成</t>
     </r>
     <r>
       <rPr>
@@ -618,13 +614,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>回合潮湿</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>造成{0}</t>
+      <t>{1}</t>
     </r>
     <r>
       <rPr>
@@ -635,7 +625,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>点火伤害，并且造成</t>
+      <t>回合潮湿</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>造成{0}</t>
     </r>
     <r>
       <rPr>
@@ -646,7 +642,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{1}</t>
+      <t>点雷伤害，额外进行一次判定，</t>
     </r>
     <r>
       <rPr>
@@ -657,13 +653,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>回合潮湿</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>造成{0}</t>
+      <t>{1}</t>
     </r>
     <r>
       <rPr>
@@ -674,7 +664,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>点雷伤害，额外进行一次判定，</t>
+      <t>以上则造成</t>
     </r>
     <r>
       <rPr>
@@ -685,7 +675,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{1}</t>
+      <t>{2}</t>
     </r>
     <r>
       <rPr>
@@ -696,7 +686,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>以上则造成</t>
+      <t>回合麻痹</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>造成{0}</t>
     </r>
     <r>
       <rPr>
@@ -707,7 +703,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{2}</t>
+      <t>点雷伤害并且造成</t>
     </r>
     <r>
       <rPr>
@@ -718,13 +714,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>回合麻痹</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>造成{0}</t>
+      <t>{1}</t>
     </r>
     <r>
       <rPr>
@@ -735,7 +725,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>点雷伤害并且造成</t>
+      <t>回合麻痹，</t>
     </r>
     <r>
       <rPr>
@@ -746,7 +736,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{1}</t>
+      <t>{2}</t>
     </r>
     <r>
       <rPr>
@@ -757,7 +747,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>回合麻痹，</t>
+      <t>回合灼烧</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>造成{0}</t>
     </r>
     <r>
       <rPr>
@@ -768,7 +764,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{2}</t>
+      <t>点风伤害，并且额外造成</t>
     </r>
     <r>
       <rPr>
@@ -779,13 +775,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>回合灼烧</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>造成{0}</t>
+      <t>{1}</t>
     </r>
     <r>
       <rPr>
@@ -796,7 +786,141 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>点风伤害，并且额外造成</t>
+      <t>点物理伤害</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点冰伤害，并且额外造成{1}点物理伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点冰伤害，并且造成{1}回合减速(冰)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰甲术</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>为目标添加{0}点护盾(冰)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>土锥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点土伤害，并且额外造成{1}点物理伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarthArmorSpell</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IceArmorSpell</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarthSpike</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素亲和：火</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementalAffinityFire</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放的火伤害+{0}，受到的火伤害-{1}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水,水</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>泼水</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplashWater</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}回合潮湿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicCreaturesFire</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素生物：火</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicCreaturesIce</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素生物：冰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicCreaturesThunder</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素生物：雷</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次受到火属性伤害+{0},雷伤害-{1};处于潮湿状态时每回合回复{2}点生命</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷属性伤害转为治疗，水属性造成{0}倍伤害，受到物理伤害时进行判定{1}以上则造成麻痹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰属性伤害转为治疗，火属性造成{0}倍伤害，受到物理伤害时进行判定{1}以上则造成减速(冰)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火属性伤害转为治疗，水属性造成{0}倍伤害，受到物理伤害时进行判定{1}以上则造成着火</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -807,7 +931,69 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{1}</t>
+      <t>,5</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>断尾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>即将受到致命伤害时，防止该次伤害，一局游戏仅生效一次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤鞭</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>草,草</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点草伤害，并且额外造成{1}点物理伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>草</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤曼缠绕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽翼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放的风伤害+{0}，受到的风伤害-{1}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺风</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方队伍所有角色，速度+{0},持续{1}回合</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>快斩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛撞</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -818,137 +1004,89 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>点物理伤害</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成{0}点冰伤害，并且额外造成{1}点物理伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成{0}点冰伤害，并且造成{1}回合减速(冰)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰甲术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>为目标添加{0}点护盾(冰)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>土锥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成{0}点土伤害，并且额外造成{1}点物理伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EarthArmorSpell</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>IceArmorSpell</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>EarthSpike</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素亲和：火</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementalAffinityFire</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放的火伤害+{0}，受到的火伤害-{1}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>水,水</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>泼水</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SplashWater</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成{0}回合潮湿</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicCreaturesFire</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素生物：火</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>火属性伤害转为治疗，水属性造成{0}倍伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicCreaturesIce</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素生物：冰</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰属性伤害转为治疗，火属性造成{0}倍伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicCreaturesThunder</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素生物：雷</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷属性伤害转为治疗，水属性造成{0}倍伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>植物魔物</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次受到火属性伤害+{0},雷、水属性伤害-{1}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+      <t>,3</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点伤害,每连续释放一次，伤害加{1}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点伤害,额外进行一次判定，{1}以上则造成{2}回合眩晕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点伤害,额外造成高于对方速度差值的伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点伤害,自身受到{1}点伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢垃圾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行一次判定,6或5点造成{0}点伤害，4或3点造成{1}回合致盲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlantMonster</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TailChopping</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wings</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tailwind</t>
+  </si>
+  <si>
+    <t>VineWhip</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VineEntanglement</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuickSlash</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViciousCharge</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrashToss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}回合缠绕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1335,10 +1473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1371,22 +1509,22 @@
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1406,16 +1544,16 @@
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -1453,7 +1591,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1469,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I5" s="4">
         <v>1</v>
@@ -1483,7 +1621,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -1499,13 +1637,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>25</v>
@@ -1513,7 +1651,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -1522,22 +1660,110 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G7" s="4" t="b">
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K8" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1549,10 +1775,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1585,22 +1811,22 @@
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1620,13 +1846,13 @@
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>12</v>
@@ -1667,63 +1893,63 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G6" s="4" t="b">
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K6" s="8">
         <v>4</v>
@@ -1731,63 +1957,63 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G8" s="4" t="b">
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K8" s="8">
         <v>3</v>
@@ -1795,63 +2021,63 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="G10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="K10" s="7">
         <v>3</v>
@@ -1859,359 +2085,451 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G11" s="4" t="b">
         <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I11" s="4">
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G13" s="4" t="b">
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I13" s="4">
         <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G14" s="4" t="b">
         <v>1</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I14" s="4">
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G15" s="4" t="b">
         <v>1</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I15" s="4">
         <v>1</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="8">
-        <v>6</v>
+      <c r="J15" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>119</v>
+        <v>98</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>84</v>
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
       </c>
       <c r="G16" s="4" t="b">
         <v>1</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I16" s="4">
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>65</v>
+        <v>78</v>
+      </c>
+      <c r="K16" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="G19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>84</v>
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>88</v>
       </c>
       <c r="G20" s="4" t="b">
         <v>1</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I20" s="4">
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" s="8">
-        <v>8</v>
+        <v>113</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G21" s="4" t="b">
         <v>1</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="K21" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C23" s="3"/>
-      <c r="I23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K24" s="7">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2222,10 +2540,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2252,22 +2570,22 @@
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2287,13 +2605,13 @@
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>12</v>
@@ -2332,28 +2650,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="G5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -2361,28 +2679,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="G6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -2390,28 +2708,28 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7" s="4" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -2419,153 +2737,155 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G8" s="4" t="b">
         <v>0</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I8" s="4">
         <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
+        <v>143</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G9" s="4" t="b">
         <v>0</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
+        <v>142</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
+      <c r="K10" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G12" s="4" t="b">
         <v>0</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I12" s="4">
         <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -2577,51 +2897,97 @@
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="4" t="b">
         <v>0</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/DataTables/Datas/monster/skill.xlsx
+++ b/Luban/DataTables/Datas/monster/skill.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="4440" windowWidth="28800" windowHeight="15345" activeTab="1"/>
+    <workbookView xWindow="7560" yWindow="4440" windowWidth="28800" windowHeight="15345"/>
   </bookViews>
   <sheets>
     <sheet name="point" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="188">
   <si>
     <t>##</t>
   </si>
@@ -1086,6 +1086,63 @@
   </si>
   <si>
     <t>造成{0}回合缠绕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>straight</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续打击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行一次判定,根据点数次数造成数次伤害,每一次造成{0}点伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>kind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Six</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>致命打击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点伤害,并且造成{1}回合眩晕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SledgehammerStrike</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RapidAssault</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LethalStrike</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1473,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1621,13 +1678,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3">
-        <v>6</v>
+        <v>185</v>
+      </c>
+      <c r="C6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>19</v>
@@ -1643,25 +1700,26 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="K6" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>101</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="4" t="b">
         <v>1</v>
       </c>
@@ -1672,24 +1730,24 @@
         <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>173</v>
+      <c r="B8" t="s">
+        <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
       </c>
       <c r="G8" s="4" t="b">
         <v>1</v>
@@ -1701,18 +1759,18 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K8" s="8">
-        <v>2</v>
+        <v>161</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -1720,7 +1778,6 @@
       <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="4"/>
       <c r="G9" s="4" t="b">
         <v>1</v>
       </c>
@@ -1731,25 +1788,26 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
+      </c>
+      <c r="K9" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="4" t="b">
         <v>1</v>
       </c>
@@ -1760,10 +1818,97 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K12" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1777,7 +1922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>

--- a/Luban/DataTables/Datas/monster/skill.xlsx
+++ b/Luban/DataTables/Datas/monster/skill.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="4440" windowWidth="28800" windowHeight="15345"/>
+    <workbookView xWindow="7560" yWindow="4440" windowWidth="28800" windowHeight="15345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="point" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="206">
   <si>
     <t>##</t>
   </si>
@@ -843,10 +843,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>释放的火伤害+{0}，受到的火伤害-{1}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>水,水</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -968,10 +964,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>释放的风伤害+{0}，受到的风伤害-{1}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>顺风</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1130,10 +1122,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>18,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>SledgehammerStrike</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1144,6 +1132,90 @@
   <si>
     <t>LethalStrike</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵巧</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行判定时,可选择让点数+1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放的暗伤害+{0}，受到的光伤害+{1}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devil</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementalAffinityWater</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素亲和：水</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dexterity</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicCreaturesLight</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素生物：光</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>光属性伤害转为治疗，暗属性造成{0}倍伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不死族</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Undead</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素亲和：光</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementalAffinityLight</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放的光伤害+{0}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放的水伤害+{0},受到的水伤害-{1}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放的火伤害+{0},受到的火伤害-{1}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放的风伤害+{0},受到的风伤害-{1}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1532,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1678,10 +1750,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D6">
         <v>12</v>
@@ -1730,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>25</v>
@@ -1759,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>26</v>
@@ -1767,10 +1839,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -1788,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K9" s="8">
         <v>2</v>
@@ -1796,10 +1868,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -1818,18 +1890,18 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -1847,24 +1919,24 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G12" s="4" t="b">
         <v>1</v>
@@ -1876,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K12" s="8">
         <v>3</v>
@@ -1884,16 +1956,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G13" s="4" t="b">
         <v>1</v>
@@ -1905,10 +1977,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1923,7 +1995,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2178,7 +2250,7 @@
         <v>36</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G9" s="4" t="b">
         <v>1</v>
@@ -2193,15 +2265,15 @@
         <v>107</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2210,7 +2282,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G10" s="4" t="b">
         <v>1</v>
@@ -2222,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K10" s="7">
         <v>3</v>
@@ -2358,10 +2430,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2382,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -2614,19 +2686,19 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="G23" s="4" t="b">
         <v>1</v>
@@ -2638,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>77</v>
@@ -2646,10 +2718,10 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2658,7 +2730,7 @@
         <v>36</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G24" s="4" t="b">
         <v>1</v>
@@ -2670,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K24" s="7">
         <v>3</v>
@@ -2685,10 +2757,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2882,10 +2954,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2903,18 +2975,18 @@
         <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2932,18 +3004,18 @@
         <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2961,18 +3033,18 @@
         <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2990,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -2998,10 +3070,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3019,27 +3091,27 @@
         <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>140</v>
+        <v>50</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="G13" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>37</v>
@@ -3048,15 +3120,18 @@
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3074,24 +3149,27 @@
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="G15" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>37</v>
@@ -3100,18 +3178,15 @@
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3129,10 +3204,178 @@
         <v>0</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
